--- a/document/spending-request.xlsx
+++ b/document/spending-request.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Watanabe Rui\Desktop\gakuseikaiweb\base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\student-council-website\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55B625B2-EDC0-48C8-BC44-A3BB2211F768}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C178F7-13B5-46B0-BE06-CF2F821740D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="435" windowWidth="14955" windowHeight="8895"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="支出伺い1枚目" sheetId="1" r:id="rId1"/>
@@ -21,25 +21,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">支出伺い1枚目!$B$2:$Z$31</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
-  <si>
-    <t>平成</t>
-    <rPh sb="0" eb="2">
-      <t>ヘイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
   <si>
     <t>年</t>
     <rPh sb="0" eb="1">
@@ -538,11 +524,18 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>令和</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1890,148 +1883,161 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" justifyLastLine="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" justifyLastLine="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2039,57 +2045,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="distributed" wrapText="1" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" justifyLastLine="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="distributed" wrapText="1" justifyLastLine="1"/>
@@ -2102,134 +2057,273 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" justifyLastLine="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2259,114 +2353,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" justifyLastLine="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2706,11 +2699,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2732,19 +2725,19 @@
       <c r="F2" s="58"/>
       <c r="G2" s="58"/>
       <c r="H2" s="58"/>
-      <c r="I2" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
+      <c r="I2" s="170" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
       <c r="T2" s="58"/>
       <c r="U2" s="77"/>
       <c r="V2" s="78"/>
@@ -2777,26 +2770,26 @@
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="G4" s="76"/>
-      <c r="J4" s="147" t="s">
+      <c r="J4" s="154" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="155"/>
+      <c r="L4" s="176"/>
+      <c r="M4" s="177" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="178"/>
+      <c r="O4" s="179"/>
+      <c r="P4" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="148"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="150" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="151"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="155" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="156"/>
-      <c r="R4" s="157"/>
-      <c r="X4" s="147" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y4" s="148"/>
-      <c r="Z4" s="166"/>
+      <c r="Q4" s="142"/>
+      <c r="R4" s="143"/>
+      <c r="X4" s="154" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="155"/>
+      <c r="Z4" s="156"/>
     </row>
     <row r="5" spans="2:26" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="25"/>
@@ -2804,18 +2797,18 @@
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="G5" s="44"/>
-      <c r="J5" s="192"/>
-      <c r="K5" s="193"/>
-      <c r="L5" s="200"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="196"/>
-      <c r="O5" s="199"/>
-      <c r="P5" s="195"/>
-      <c r="Q5" s="196"/>
-      <c r="R5" s="197"/>
-      <c r="X5" s="192"/>
-      <c r="Y5" s="193"/>
-      <c r="Z5" s="194"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="104"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="108"/>
+      <c r="Z5" s="163"/>
     </row>
     <row r="6" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
@@ -2845,20 +2838,20 @@
       <c r="Z6" s="25"/>
     </row>
     <row r="7" spans="2:26" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="153" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="153"/>
-      <c r="M7" s="154"/>
+      <c r="B7" s="180" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="181"/>
       <c r="N7" s="75"/>
       <c r="O7" s="75"/>
       <c r="P7" s="75"/>
@@ -2874,59 +2867,59 @@
       <c r="Z7" s="69"/>
     </row>
     <row r="8" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="178" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="190"/>
-      <c r="J8" s="190"/>
-      <c r="K8" s="190"/>
-      <c r="L8" s="190"/>
-      <c r="M8" s="191"/>
-      <c r="N8" s="206" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="207"/>
-      <c r="P8" s="158" t="s">
+      <c r="B8" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="119"/>
+      <c r="P8" s="145" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="145"/>
+      <c r="R8" s="144"/>
+      <c r="S8" s="144"/>
+      <c r="T8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="Q8" s="158"/>
-      <c r="R8" s="145"/>
-      <c r="S8" s="145"/>
-      <c r="T8" s="73" t="s">
+      <c r="U8" s="144"/>
+      <c r="V8" s="144"/>
+      <c r="W8" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="U8" s="145"/>
-      <c r="V8" s="145"/>
-      <c r="W8" s="73" t="s">
+      <c r="X8" s="144"/>
+      <c r="Y8" s="144"/>
+      <c r="Z8" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="X8" s="145"/>
-      <c r="Y8" s="145"/>
-      <c r="Z8" s="74" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="9" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="204" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="205"/>
-      <c r="D9" s="205"/>
-      <c r="E9" s="205"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="205"/>
-      <c r="H9" s="167" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="168"/>
-      <c r="J9" s="168"/>
-      <c r="K9" s="169"/>
+      <c r="B9" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="157" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="159"/>
       <c r="L9" s="56"/>
       <c r="M9" s="57"/>
       <c r="N9" s="70"/>
@@ -2938,32 +2931,32 @@
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
       <c r="V9" s="71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W9" s="71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X9" s="71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y9" s="71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z9" s="72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:26" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="204"/>
-      <c r="C10" s="205"/>
-      <c r="D10" s="205"/>
-      <c r="E10" s="205"/>
-      <c r="F10" s="205"/>
-      <c r="G10" s="205"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="171"/>
-      <c r="K10" s="172"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="162"/>
       <c r="L10" s="53"/>
       <c r="M10" s="54"/>
       <c r="N10" s="54"/>
@@ -2981,304 +2974,304 @@
       <c r="Z10" s="55"/>
     </row>
     <row r="11" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="185" t="s">
+      <c r="B11" s="132" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143" t="s">
+      <c r="G11" s="133"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="144"/>
+      <c r="O11" s="144"/>
+      <c r="P11" s="144"/>
+      <c r="Q11" s="144"/>
+      <c r="R11" s="144"/>
+      <c r="S11" s="144"/>
+      <c r="T11" s="144"/>
+      <c r="U11" s="144"/>
+      <c r="V11" s="144"/>
+      <c r="W11" s="144"/>
+      <c r="X11" s="144"/>
+      <c r="Y11" s="144"/>
+      <c r="Z11" s="175"/>
+    </row>
+    <row r="12" spans="2:26" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="134"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="143"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="145"/>
-      <c r="N11" s="145"/>
-      <c r="O11" s="145"/>
-      <c r="P11" s="145"/>
-      <c r="Q11" s="145"/>
-      <c r="R11" s="145"/>
-      <c r="S11" s="145"/>
-      <c r="T11" s="145"/>
-      <c r="U11" s="145"/>
-      <c r="V11" s="145"/>
-      <c r="W11" s="145"/>
-      <c r="X11" s="145"/>
-      <c r="Y11" s="145"/>
-      <c r="Z11" s="146"/>
-    </row>
-    <row r="12" spans="2:26" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="186"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="187"/>
-      <c r="F12" s="187" t="s">
+      <c r="G12" s="117"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="152"/>
+      <c r="R12" s="152"/>
+      <c r="S12" s="152"/>
+      <c r="T12" s="152"/>
+      <c r="U12" s="152"/>
+      <c r="V12" s="152"/>
+      <c r="W12" s="152"/>
+      <c r="X12" s="152"/>
+      <c r="Y12" s="152"/>
+      <c r="Z12" s="153"/>
+    </row>
+    <row r="13" spans="2:26" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="130"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="148" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="172"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="172"/>
+      <c r="L13" s="172"/>
+      <c r="M13" s="172"/>
+      <c r="N13" s="172"/>
+      <c r="O13" s="173"/>
+      <c r="P13" s="146" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="147"/>
+      <c r="R13" s="148" t="s">
+        <v>8</v>
+      </c>
+      <c r="S13" s="149"/>
+      <c r="T13" s="149"/>
+      <c r="U13" s="150"/>
+      <c r="V13" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="187"/>
-      <c r="H12" s="163"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="164"/>
-      <c r="O12" s="164"/>
-      <c r="P12" s="164"/>
-      <c r="Q12" s="164"/>
-      <c r="R12" s="164"/>
-      <c r="S12" s="164"/>
-      <c r="T12" s="164"/>
-      <c r="U12" s="164"/>
-      <c r="V12" s="164"/>
-      <c r="W12" s="164"/>
-      <c r="X12" s="164"/>
-      <c r="Y12" s="164"/>
-      <c r="Z12" s="165"/>
-    </row>
-    <row r="13" spans="2:26" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="182" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="183"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="140" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="141"/>
-      <c r="N13" s="141"/>
-      <c r="O13" s="142"/>
-      <c r="P13" s="159" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q13" s="160"/>
-      <c r="R13" s="140" t="s">
-        <v>9</v>
-      </c>
-      <c r="S13" s="161"/>
-      <c r="T13" s="161"/>
-      <c r="U13" s="162"/>
-      <c r="V13" s="208" t="s">
-        <v>32</v>
-      </c>
-      <c r="W13" s="209"/>
-      <c r="X13" s="209"/>
-      <c r="Y13" s="209"/>
-      <c r="Z13" s="210"/>
+      <c r="W13" s="100"/>
+      <c r="X13" s="100"/>
+      <c r="Y13" s="100"/>
+      <c r="Z13" s="101"/>
     </row>
     <row r="14" spans="2:26" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B14" s="27"/>
       <c r="C14" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="29"/>
-      <c r="E14" s="201"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="202"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="202"/>
-      <c r="L14" s="202"/>
-      <c r="M14" s="202"/>
-      <c r="N14" s="202"/>
-      <c r="O14" s="203"/>
-      <c r="P14" s="175"/>
-      <c r="Q14" s="181"/>
-      <c r="R14" s="188"/>
-      <c r="S14" s="188"/>
-      <c r="T14" s="188"/>
-      <c r="U14" s="188"/>
-      <c r="V14" s="175"/>
-      <c r="W14" s="176"/>
-      <c r="X14" s="176"/>
-      <c r="Y14" s="176"/>
-      <c r="Z14" s="177"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="121"/>
+      <c r="Q14" s="128"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="121"/>
+      <c r="W14" s="122"/>
+      <c r="X14" s="122"/>
+      <c r="Y14" s="122"/>
+      <c r="Z14" s="123"/>
     </row>
     <row r="15" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="30"/>
       <c r="C15" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="32"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="113"/>
-      <c r="M15" s="113"/>
-      <c r="N15" s="113"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="114"/>
-      <c r="R15" s="173"/>
-      <c r="S15" s="173"/>
-      <c r="T15" s="173"/>
-      <c r="U15" s="173"/>
-      <c r="V15" s="112"/>
-      <c r="W15" s="113"/>
-      <c r="X15" s="113"/>
-      <c r="Y15" s="113"/>
-      <c r="Z15" s="115"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="124"/>
+      <c r="S15" s="124"/>
+      <c r="T15" s="124"/>
+      <c r="U15" s="124"/>
+      <c r="V15" s="110"/>
+      <c r="W15" s="120"/>
+      <c r="X15" s="120"/>
+      <c r="Y15" s="120"/>
+      <c r="Z15" s="139"/>
     </row>
     <row r="16" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="30"/>
       <c r="C16" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="32"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="114"/>
-      <c r="R16" s="173"/>
-      <c r="S16" s="173"/>
-      <c r="T16" s="173"/>
-      <c r="U16" s="173"/>
-      <c r="V16" s="173"/>
-      <c r="W16" s="173"/>
-      <c r="X16" s="173"/>
-      <c r="Y16" s="173"/>
-      <c r="Z16" s="174"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="124"/>
+      <c r="T16" s="124"/>
+      <c r="U16" s="124"/>
+      <c r="V16" s="124"/>
+      <c r="W16" s="124"/>
+      <c r="X16" s="124"/>
+      <c r="Y16" s="124"/>
+      <c r="Z16" s="140"/>
     </row>
     <row r="17" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="30"/>
       <c r="C17" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="32"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="114"/>
-      <c r="R17" s="173"/>
-      <c r="S17" s="173"/>
-      <c r="T17" s="173"/>
-      <c r="U17" s="173"/>
-      <c r="V17" s="173"/>
-      <c r="W17" s="173"/>
-      <c r="X17" s="173"/>
-      <c r="Y17" s="173"/>
-      <c r="Z17" s="174"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="124"/>
+      <c r="S17" s="124"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="124"/>
+      <c r="V17" s="124"/>
+      <c r="W17" s="124"/>
+      <c r="X17" s="124"/>
+      <c r="Y17" s="124"/>
+      <c r="Z17" s="140"/>
     </row>
     <row r="18" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="30"/>
       <c r="C18" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="32"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="113"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="114"/>
-      <c r="R18" s="112"/>
-      <c r="S18" s="113"/>
-      <c r="T18" s="113"/>
-      <c r="U18" s="114"/>
-      <c r="V18" s="112"/>
-      <c r="W18" s="113"/>
-      <c r="X18" s="113"/>
-      <c r="Y18" s="113"/>
-      <c r="Z18" s="115"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="120"/>
+      <c r="T18" s="120"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="110"/>
+      <c r="W18" s="120"/>
+      <c r="X18" s="120"/>
+      <c r="Y18" s="120"/>
+      <c r="Z18" s="139"/>
     </row>
     <row r="19" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="33"/>
       <c r="C19" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="26"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="114"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="100"/>
-      <c r="T19" s="100"/>
-      <c r="U19" s="101"/>
-      <c r="V19" s="99"/>
-      <c r="W19" s="100"/>
-      <c r="X19" s="100"/>
-      <c r="Y19" s="100"/>
-      <c r="Z19" s="122"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="189"/>
+      <c r="S19" s="190"/>
+      <c r="T19" s="190"/>
+      <c r="U19" s="201"/>
+      <c r="V19" s="189"/>
+      <c r="W19" s="190"/>
+      <c r="X19" s="190"/>
+      <c r="Y19" s="190"/>
+      <c r="Z19" s="191"/>
     </row>
     <row r="20" spans="1:26" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B20" s="35"/>
       <c r="C20" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="37"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="120"/>
-      <c r="R20" s="102"/>
-      <c r="S20" s="102"/>
-      <c r="T20" s="102"/>
-      <c r="U20" s="102"/>
-      <c r="V20" s="102"/>
-      <c r="W20" s="102"/>
-      <c r="X20" s="102"/>
-      <c r="Y20" s="102"/>
-      <c r="Z20" s="121"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="185"/>
+      <c r="Q20" s="186"/>
+      <c r="R20" s="187"/>
+      <c r="S20" s="187"/>
+      <c r="T20" s="187"/>
+      <c r="U20" s="187"/>
+      <c r="V20" s="187"/>
+      <c r="W20" s="187"/>
+      <c r="X20" s="187"/>
+      <c r="Y20" s="187"/>
+      <c r="Z20" s="188"/>
     </row>
     <row r="21" spans="1:26" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="61"/>
@@ -3296,26 +3289,26 @@
       <c r="N21" s="61"/>
       <c r="O21" s="61"/>
       <c r="P21" s="86"/>
-      <c r="Q21" s="126" t="s">
-        <v>40</v>
-      </c>
-      <c r="R21" s="126"/>
-      <c r="S21" s="126"/>
-      <c r="T21" s="126"/>
-      <c r="U21" s="127"/>
-      <c r="V21" s="123"/>
-      <c r="W21" s="124"/>
-      <c r="X21" s="124"/>
-      <c r="Y21" s="124"/>
-      <c r="Z21" s="125"/>
+      <c r="Q21" s="195" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" s="195"/>
+      <c r="S21" s="195"/>
+      <c r="T21" s="195"/>
+      <c r="U21" s="196"/>
+      <c r="V21" s="192"/>
+      <c r="W21" s="193"/>
+      <c r="X21" s="193"/>
+      <c r="Y21" s="193"/>
+      <c r="Z21" s="194"/>
     </row>
     <row r="22" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="43"/>
-      <c r="B22" s="128" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
+      <c r="B22" s="197" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="198"/>
+      <c r="D22" s="198"/>
       <c r="E22" s="87"/>
       <c r="F22" s="88"/>
       <c r="G22" s="89"/>
@@ -3328,34 +3321,34 @@
       <c r="N22" s="93"/>
       <c r="O22" s="93"/>
       <c r="P22" s="37"/>
-      <c r="Q22" s="106" t="s">
-        <v>21</v>
-      </c>
-      <c r="R22" s="107"/>
-      <c r="S22" s="108"/>
+      <c r="Q22" s="205" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="206"/>
+      <c r="S22" s="207"/>
       <c r="T22" s="82"/>
       <c r="U22" s="70"/>
       <c r="V22" s="38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W22" s="38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X22" s="38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y22" s="38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z22" s="39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="43"/>
-      <c r="B23" s="130"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="200"/>
       <c r="E23" s="94"/>
       <c r="F23" s="95"/>
       <c r="G23" s="95"/>
@@ -3368,9 +3361,9 @@
       <c r="N23" s="97"/>
       <c r="O23" s="97"/>
       <c r="P23" s="98"/>
-      <c r="Q23" s="109"/>
-      <c r="R23" s="110"/>
-      <c r="S23" s="111"/>
+      <c r="Q23" s="208"/>
+      <c r="R23" s="209"/>
+      <c r="S23" s="210"/>
       <c r="T23" s="62"/>
       <c r="U23" s="40"/>
       <c r="V23" s="40"/>
@@ -3407,33 +3400,33 @@
       <c r="Z24" s="44"/>
     </row>
     <row r="25" spans="1:26" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="103" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="104"/>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="104"/>
-      <c r="R25" s="104"/>
-      <c r="S25" s="104"/>
-      <c r="T25" s="104"/>
-      <c r="U25" s="104"/>
-      <c r="V25" s="104"/>
-      <c r="W25" s="104"/>
-      <c r="X25" s="104"/>
-      <c r="Y25" s="104"/>
-      <c r="Z25" s="105"/>
+      <c r="B25" s="202" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="203"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="203"/>
+      <c r="G25" s="203"/>
+      <c r="H25" s="203"/>
+      <c r="I25" s="203"/>
+      <c r="J25" s="203"/>
+      <c r="K25" s="203"/>
+      <c r="L25" s="203"/>
+      <c r="M25" s="203"/>
+      <c r="N25" s="203"/>
+      <c r="O25" s="203"/>
+      <c r="P25" s="203"/>
+      <c r="Q25" s="203"/>
+      <c r="R25" s="203"/>
+      <c r="S25" s="203"/>
+      <c r="T25" s="203"/>
+      <c r="U25" s="203"/>
+      <c r="V25" s="203"/>
+      <c r="W25" s="203"/>
+      <c r="X25" s="203"/>
+      <c r="Y25" s="203"/>
+      <c r="Z25" s="204"/>
     </row>
     <row r="26" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="46"/>
@@ -3463,62 +3456,62 @@
       <c r="Z26" s="48"/>
     </row>
     <row r="27" spans="1:26" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="132" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="133"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="133"/>
-      <c r="O27" s="133"/>
-      <c r="P27" s="133"/>
-      <c r="Q27" s="133"/>
-      <c r="R27" s="133"/>
-      <c r="S27" s="133"/>
-      <c r="T27" s="133"/>
-      <c r="U27" s="133"/>
-      <c r="V27" s="133"/>
-      <c r="W27" s="133"/>
-      <c r="X27" s="133"/>
-      <c r="Y27" s="133"/>
-      <c r="Z27" s="134"/>
+      <c r="B27" s="164" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="165"/>
+      <c r="L27" s="165"/>
+      <c r="M27" s="165"/>
+      <c r="N27" s="165"/>
+      <c r="O27" s="165"/>
+      <c r="P27" s="165"/>
+      <c r="Q27" s="165"/>
+      <c r="R27" s="165"/>
+      <c r="S27" s="165"/>
+      <c r="T27" s="165"/>
+      <c r="U27" s="165"/>
+      <c r="V27" s="165"/>
+      <c r="W27" s="165"/>
+      <c r="X27" s="165"/>
+      <c r="Y27" s="165"/>
+      <c r="Z27" s="166"/>
     </row>
     <row r="28" spans="1:26" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="135" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="136"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="136"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="136"/>
-      <c r="Q28" s="136"/>
-      <c r="R28" s="136"/>
-      <c r="S28" s="136"/>
-      <c r="T28" s="136"/>
-      <c r="U28" s="136"/>
-      <c r="V28" s="136"/>
-      <c r="W28" s="136"/>
-      <c r="X28" s="136"/>
-      <c r="Y28" s="136"/>
-      <c r="Z28" s="137"/>
+      <c r="B28" s="167" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="168"/>
+      <c r="I28" s="168"/>
+      <c r="J28" s="168"/>
+      <c r="K28" s="168"/>
+      <c r="L28" s="168"/>
+      <c r="M28" s="168"/>
+      <c r="N28" s="168"/>
+      <c r="O28" s="168"/>
+      <c r="P28" s="168"/>
+      <c r="Q28" s="168"/>
+      <c r="R28" s="168"/>
+      <c r="S28" s="168"/>
+      <c r="T28" s="168"/>
+      <c r="U28" s="168"/>
+      <c r="V28" s="168"/>
+      <c r="W28" s="168"/>
+      <c r="X28" s="168"/>
+      <c r="Y28" s="168"/>
+      <c r="Z28" s="169"/>
     </row>
     <row r="29" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="46"/>
@@ -3575,33 +3568,33 @@
       <c r="Z30" s="50"/>
     </row>
     <row r="31" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="116" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="117"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="117"/>
-      <c r="L31" s="117"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="117"/>
-      <c r="O31" s="117"/>
-      <c r="P31" s="117"/>
-      <c r="Q31" s="117"/>
-      <c r="R31" s="117"/>
-      <c r="S31" s="117"/>
-      <c r="T31" s="117"/>
-      <c r="U31" s="117"/>
-      <c r="V31" s="117"/>
-      <c r="W31" s="117"/>
-      <c r="X31" s="117"/>
-      <c r="Y31" s="117"/>
-      <c r="Z31" s="118"/>
+      <c r="B31" s="182" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="183"/>
+      <c r="D31" s="183"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="183"/>
+      <c r="J31" s="183"/>
+      <c r="K31" s="183"/>
+      <c r="L31" s="183"/>
+      <c r="M31" s="183"/>
+      <c r="N31" s="183"/>
+      <c r="O31" s="183"/>
+      <c r="P31" s="183"/>
+      <c r="Q31" s="183"/>
+      <c r="R31" s="183"/>
+      <c r="S31" s="183"/>
+      <c r="T31" s="183"/>
+      <c r="U31" s="183"/>
+      <c r="V31" s="183"/>
+      <c r="W31" s="183"/>
+      <c r="X31" s="183"/>
+      <c r="Y31" s="183"/>
+      <c r="Z31" s="184"/>
     </row>
     <row r="32" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="45"/>
@@ -3632,15 +3625,46 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="V13:Z13"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="E14:O14"/>
-    <mergeCell ref="B9:G10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B31:Z31"/>
+    <mergeCell ref="E19:O19"/>
+    <mergeCell ref="E20:O20"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="V20:Z20"/>
+    <mergeCell ref="V19:Z19"/>
+    <mergeCell ref="V21:Z21"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="B25:Z25"/>
+    <mergeCell ref="Q22:S23"/>
+    <mergeCell ref="B27:Z27"/>
+    <mergeCell ref="B28:Z28"/>
+    <mergeCell ref="I2:S2"/>
+    <mergeCell ref="E13:O13"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:Z11"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="E15:O15"/>
+    <mergeCell ref="E16:O16"/>
+    <mergeCell ref="E17:O17"/>
+    <mergeCell ref="E18:O18"/>
+    <mergeCell ref="V18:Z18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="H12:Z12"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="H9:K10"/>
+    <mergeCell ref="X5:Z5"/>
     <mergeCell ref="R18:U18"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="V14:Z14"/>
@@ -3657,46 +3681,15 @@
     <mergeCell ref="V15:Z15"/>
     <mergeCell ref="V17:Z17"/>
     <mergeCell ref="V16:Z16"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="H12:Z12"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="H9:K10"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="B27:Z27"/>
-    <mergeCell ref="B28:Z28"/>
-    <mergeCell ref="I2:S2"/>
-    <mergeCell ref="E13:O13"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:Z11"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B31:Z31"/>
-    <mergeCell ref="E19:O19"/>
-    <mergeCell ref="E20:O20"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="V20:Z20"/>
-    <mergeCell ref="V19:Z19"/>
-    <mergeCell ref="V21:Z21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="B25:Z25"/>
-    <mergeCell ref="Q22:S23"/>
-    <mergeCell ref="E15:O15"/>
-    <mergeCell ref="E16:O16"/>
-    <mergeCell ref="E17:O17"/>
-    <mergeCell ref="E18:O18"/>
-    <mergeCell ref="V18:Z18"/>
-    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="V13:Z13"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="E14:O14"/>
+    <mergeCell ref="B9:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="N8:O8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3707,7 +3700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AA45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3720,19 +3713,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I2" s="238" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="239"/>
-      <c r="M2" s="239"/>
-      <c r="N2" s="239"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="239"/>
-      <c r="Q2" s="239"/>
-      <c r="R2" s="239"/>
-      <c r="S2" s="239"/>
+      <c r="I2" s="250" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="251"/>
+      <c r="P2" s="251"/>
+      <c r="Q2" s="251"/>
+      <c r="R2" s="251"/>
+      <c r="S2" s="251"/>
       <c r="U2" s="79"/>
       <c r="V2" s="80"/>
       <c r="W2" s="80"/>
@@ -3751,15 +3744,15 @@
       <c r="H3" s="51"/>
       <c r="I3" s="63"/>
       <c r="J3" s="63"/>
-      <c r="K3" s="235" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="236"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="236"/>
-      <c r="P3" s="237"/>
-      <c r="Q3" s="237"/>
+      <c r="K3" s="247" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="248"/>
+      <c r="M3" s="248"/>
+      <c r="N3" s="248"/>
+      <c r="O3" s="248"/>
+      <c r="P3" s="249"/>
+      <c r="Q3" s="249"/>
       <c r="R3" s="63"/>
       <c r="S3" s="63"/>
       <c r="T3" s="63"/>
@@ -3798,33 +3791,33 @@
       <c r="Z4" s="51"/>
     </row>
     <row r="5" spans="2:27" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="233" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
-      <c r="G5" s="234"/>
-      <c r="H5" s="234"/>
-      <c r="I5" s="234"/>
-      <c r="J5" s="234"/>
-      <c r="K5" s="234"/>
-      <c r="L5" s="234"/>
-      <c r="M5" s="234"/>
-      <c r="N5" s="234"/>
-      <c r="O5" s="234"/>
-      <c r="P5" s="234"/>
-      <c r="Q5" s="234"/>
-      <c r="R5" s="234"/>
-      <c r="S5" s="234"/>
-      <c r="T5" s="234"/>
-      <c r="U5" s="234"/>
-      <c r="V5" s="234"/>
-      <c r="W5" s="234"/>
-      <c r="X5" s="234"/>
-      <c r="Y5" s="234"/>
-      <c r="Z5" s="234"/>
+      <c r="B5" s="245" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="246"/>
+      <c r="D5" s="246"/>
+      <c r="E5" s="246"/>
+      <c r="F5" s="246"/>
+      <c r="G5" s="246"/>
+      <c r="H5" s="246"/>
+      <c r="I5" s="246"/>
+      <c r="J5" s="246"/>
+      <c r="K5" s="246"/>
+      <c r="L5" s="246"/>
+      <c r="M5" s="246"/>
+      <c r="N5" s="246"/>
+      <c r="O5" s="246"/>
+      <c r="P5" s="246"/>
+      <c r="Q5" s="246"/>
+      <c r="R5" s="246"/>
+      <c r="S5" s="246"/>
+      <c r="T5" s="246"/>
+      <c r="U5" s="246"/>
+      <c r="V5" s="246"/>
+      <c r="W5" s="246"/>
+      <c r="X5" s="246"/>
+      <c r="Y5" s="246"/>
+      <c r="Z5" s="246"/>
     </row>
     <row r="6" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="8"/>
@@ -3854,20 +3847,20 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" spans="2:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="240" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
-      <c r="E7" s="240"/>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
-      <c r="H7" s="240"/>
-      <c r="I7" s="240"/>
-      <c r="J7" s="240"/>
-      <c r="K7" s="240"/>
-      <c r="L7" s="240"/>
-      <c r="M7" s="241"/>
+      <c r="B7" s="252" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="252"/>
+      <c r="D7" s="252"/>
+      <c r="E7" s="252"/>
+      <c r="F7" s="252"/>
+      <c r="G7" s="252"/>
+      <c r="H7" s="252"/>
+      <c r="I7" s="252"/>
+      <c r="J7" s="252"/>
+      <c r="K7" s="252"/>
+      <c r="L7" s="252"/>
+      <c r="M7" s="253"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
       <c r="P7" s="20"/>
@@ -3883,75 +3876,75 @@
       <c r="Z7" s="22"/>
     </row>
     <row r="8" spans="2:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="245" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="246"/>
-      <c r="D8" s="247"/>
-      <c r="E8" s="242" t="s">
+      <c r="B8" s="240" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="241"/>
+      <c r="D8" s="242"/>
+      <c r="E8" s="230" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="231"/>
+      <c r="G8" s="231"/>
+      <c r="H8" s="231"/>
+      <c r="I8" s="231"/>
+      <c r="J8" s="231"/>
+      <c r="K8" s="231"/>
+      <c r="L8" s="231"/>
+      <c r="M8" s="231"/>
+      <c r="N8" s="231"/>
+      <c r="O8" s="232"/>
+      <c r="P8" s="236" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="250"/>
-      <c r="G8" s="250"/>
-      <c r="H8" s="250"/>
-      <c r="I8" s="250"/>
-      <c r="J8" s="250"/>
-      <c r="K8" s="250"/>
-      <c r="L8" s="250"/>
-      <c r="M8" s="250"/>
-      <c r="N8" s="250"/>
-      <c r="O8" s="251"/>
-      <c r="P8" s="255" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="256"/>
-      <c r="R8" s="242" t="s">
-        <v>9</v>
-      </c>
-      <c r="S8" s="243"/>
-      <c r="T8" s="243"/>
-      <c r="U8" s="244"/>
-      <c r="V8" s="231" t="s">
-        <v>14</v>
-      </c>
-      <c r="W8" s="231"/>
-      <c r="X8" s="231"/>
-      <c r="Y8" s="231"/>
-      <c r="Z8" s="232"/>
+      <c r="Q8" s="237"/>
+      <c r="R8" s="230" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8" s="238"/>
+      <c r="T8" s="238"/>
+      <c r="U8" s="239"/>
+      <c r="V8" s="243" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" s="243"/>
+      <c r="X8" s="243"/>
+      <c r="Y8" s="243"/>
+      <c r="Z8" s="244"/>
     </row>
     <row r="9" spans="2:27" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B9" s="6"/>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="252"/>
-      <c r="F9" s="253"/>
-      <c r="G9" s="253"/>
-      <c r="H9" s="253"/>
-      <c r="I9" s="253"/>
-      <c r="J9" s="253"/>
-      <c r="K9" s="253"/>
-      <c r="L9" s="253"/>
-      <c r="M9" s="253"/>
-      <c r="N9" s="253"/>
-      <c r="O9" s="254"/>
-      <c r="P9" s="248"/>
-      <c r="Q9" s="249"/>
-      <c r="R9" s="265"/>
-      <c r="S9" s="265"/>
-      <c r="T9" s="265"/>
-      <c r="U9" s="265"/>
-      <c r="V9" s="248"/>
-      <c r="W9" s="260"/>
-      <c r="X9" s="260"/>
-      <c r="Y9" s="260"/>
-      <c r="Z9" s="261"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="234"/>
+      <c r="G9" s="234"/>
+      <c r="H9" s="234"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="234"/>
+      <c r="M9" s="234"/>
+      <c r="N9" s="234"/>
+      <c r="O9" s="235"/>
+      <c r="P9" s="220"/>
+      <c r="Q9" s="229"/>
+      <c r="R9" s="214"/>
+      <c r="S9" s="214"/>
+      <c r="T9" s="214"/>
+      <c r="U9" s="214"/>
+      <c r="V9" s="220"/>
+      <c r="W9" s="221"/>
+      <c r="X9" s="221"/>
+      <c r="Y9" s="221"/>
+      <c r="Z9" s="222"/>
     </row>
     <row r="10" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7"/>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="211"/>
@@ -3967,20 +3960,20 @@
       <c r="O10" s="213"/>
       <c r="P10" s="211"/>
       <c r="Q10" s="213"/>
-      <c r="R10" s="214"/>
-      <c r="S10" s="214"/>
-      <c r="T10" s="214"/>
-      <c r="U10" s="214"/>
+      <c r="R10" s="215"/>
+      <c r="S10" s="215"/>
+      <c r="T10" s="215"/>
+      <c r="U10" s="215"/>
       <c r="V10" s="211"/>
       <c r="W10" s="212"/>
       <c r="X10" s="212"/>
       <c r="Y10" s="212"/>
-      <c r="Z10" s="262"/>
+      <c r="Z10" s="223"/>
     </row>
     <row r="11" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="7"/>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="211"/>
@@ -3996,20 +3989,20 @@
       <c r="O11" s="213"/>
       <c r="P11" s="211"/>
       <c r="Q11" s="213"/>
-      <c r="R11" s="214"/>
-      <c r="S11" s="214"/>
-      <c r="T11" s="214"/>
-      <c r="U11" s="214"/>
-      <c r="V11" s="214"/>
-      <c r="W11" s="214"/>
-      <c r="X11" s="214"/>
-      <c r="Y11" s="214"/>
-      <c r="Z11" s="215"/>
+      <c r="R11" s="215"/>
+      <c r="S11" s="215"/>
+      <c r="T11" s="215"/>
+      <c r="U11" s="215"/>
+      <c r="V11" s="215"/>
+      <c r="W11" s="215"/>
+      <c r="X11" s="215"/>
+      <c r="Y11" s="215"/>
+      <c r="Z11" s="216"/>
     </row>
     <row r="12" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="211"/>
@@ -4025,20 +4018,20 @@
       <c r="O12" s="213"/>
       <c r="P12" s="211"/>
       <c r="Q12" s="213"/>
-      <c r="R12" s="214"/>
-      <c r="S12" s="214"/>
-      <c r="T12" s="214"/>
-      <c r="U12" s="214"/>
-      <c r="V12" s="214"/>
-      <c r="W12" s="214"/>
-      <c r="X12" s="214"/>
-      <c r="Y12" s="214"/>
-      <c r="Z12" s="215"/>
+      <c r="R12" s="215"/>
+      <c r="S12" s="215"/>
+      <c r="T12" s="215"/>
+      <c r="U12" s="215"/>
+      <c r="V12" s="215"/>
+      <c r="W12" s="215"/>
+      <c r="X12" s="215"/>
+      <c r="Y12" s="215"/>
+      <c r="Z12" s="216"/>
     </row>
     <row r="13" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="211"/>
@@ -4054,20 +4047,20 @@
       <c r="O13" s="213"/>
       <c r="P13" s="211"/>
       <c r="Q13" s="213"/>
-      <c r="R13" s="214"/>
-      <c r="S13" s="214"/>
-      <c r="T13" s="214"/>
-      <c r="U13" s="214"/>
-      <c r="V13" s="214"/>
-      <c r="W13" s="214"/>
-      <c r="X13" s="214"/>
-      <c r="Y13" s="214"/>
-      <c r="Z13" s="215"/>
+      <c r="R13" s="215"/>
+      <c r="S13" s="215"/>
+      <c r="T13" s="215"/>
+      <c r="U13" s="215"/>
+      <c r="V13" s="215"/>
+      <c r="W13" s="215"/>
+      <c r="X13" s="215"/>
+      <c r="Y13" s="215"/>
+      <c r="Z13" s="216"/>
     </row>
     <row r="14" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="7"/>
       <c r="C14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="211"/>
@@ -4083,20 +4076,20 @@
       <c r="O14" s="213"/>
       <c r="P14" s="211"/>
       <c r="Q14" s="213"/>
-      <c r="R14" s="214"/>
-      <c r="S14" s="214"/>
-      <c r="T14" s="214"/>
-      <c r="U14" s="214"/>
-      <c r="V14" s="214"/>
-      <c r="W14" s="214"/>
-      <c r="X14" s="214"/>
-      <c r="Y14" s="214"/>
-      <c r="Z14" s="215"/>
+      <c r="R14" s="215"/>
+      <c r="S14" s="215"/>
+      <c r="T14" s="215"/>
+      <c r="U14" s="215"/>
+      <c r="V14" s="215"/>
+      <c r="W14" s="215"/>
+      <c r="X14" s="215"/>
+      <c r="Y14" s="215"/>
+      <c r="Z14" s="216"/>
     </row>
     <row r="15" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="7"/>
       <c r="C15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="211"/>
@@ -4112,20 +4105,20 @@
       <c r="O15" s="213"/>
       <c r="P15" s="211"/>
       <c r="Q15" s="213"/>
-      <c r="R15" s="214"/>
-      <c r="S15" s="214"/>
-      <c r="T15" s="214"/>
-      <c r="U15" s="214"/>
-      <c r="V15" s="214"/>
-      <c r="W15" s="214"/>
-      <c r="X15" s="214"/>
-      <c r="Y15" s="214"/>
-      <c r="Z15" s="215"/>
+      <c r="R15" s="215"/>
+      <c r="S15" s="215"/>
+      <c r="T15" s="215"/>
+      <c r="U15" s="215"/>
+      <c r="V15" s="215"/>
+      <c r="W15" s="215"/>
+      <c r="X15" s="215"/>
+      <c r="Y15" s="215"/>
+      <c r="Z15" s="216"/>
     </row>
     <row r="16" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="7"/>
       <c r="C16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="211"/>
@@ -4141,20 +4134,20 @@
       <c r="O16" s="213"/>
       <c r="P16" s="211"/>
       <c r="Q16" s="213"/>
-      <c r="R16" s="214"/>
-      <c r="S16" s="214"/>
-      <c r="T16" s="214"/>
-      <c r="U16" s="214"/>
-      <c r="V16" s="214"/>
-      <c r="W16" s="214"/>
-      <c r="X16" s="214"/>
-      <c r="Y16" s="214"/>
-      <c r="Z16" s="215"/>
+      <c r="R16" s="215"/>
+      <c r="S16" s="215"/>
+      <c r="T16" s="215"/>
+      <c r="U16" s="215"/>
+      <c r="V16" s="215"/>
+      <c r="W16" s="215"/>
+      <c r="X16" s="215"/>
+      <c r="Y16" s="215"/>
+      <c r="Z16" s="216"/>
     </row>
     <row r="17" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
       <c r="C17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="211"/>
@@ -4170,20 +4163,20 @@
       <c r="O17" s="213"/>
       <c r="P17" s="211"/>
       <c r="Q17" s="213"/>
-      <c r="R17" s="214"/>
-      <c r="S17" s="214"/>
-      <c r="T17" s="214"/>
-      <c r="U17" s="214"/>
-      <c r="V17" s="214"/>
-      <c r="W17" s="214"/>
-      <c r="X17" s="214"/>
-      <c r="Y17" s="214"/>
-      <c r="Z17" s="215"/>
+      <c r="R17" s="215"/>
+      <c r="S17" s="215"/>
+      <c r="T17" s="215"/>
+      <c r="U17" s="215"/>
+      <c r="V17" s="215"/>
+      <c r="W17" s="215"/>
+      <c r="X17" s="215"/>
+      <c r="Y17" s="215"/>
+      <c r="Z17" s="216"/>
     </row>
     <row r="18" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
       <c r="C18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="211"/>
@@ -4199,20 +4192,20 @@
       <c r="O18" s="213"/>
       <c r="P18" s="211"/>
       <c r="Q18" s="213"/>
-      <c r="R18" s="214"/>
-      <c r="S18" s="214"/>
-      <c r="T18" s="214"/>
-      <c r="U18" s="214"/>
-      <c r="V18" s="214"/>
-      <c r="W18" s="214"/>
-      <c r="X18" s="214"/>
-      <c r="Y18" s="214"/>
-      <c r="Z18" s="215"/>
+      <c r="R18" s="215"/>
+      <c r="S18" s="215"/>
+      <c r="T18" s="215"/>
+      <c r="U18" s="215"/>
+      <c r="V18" s="215"/>
+      <c r="W18" s="215"/>
+      <c r="X18" s="215"/>
+      <c r="Y18" s="215"/>
+      <c r="Z18" s="216"/>
     </row>
     <row r="19" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="7"/>
       <c r="C19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="211"/>
@@ -4228,20 +4221,20 @@
       <c r="O19" s="213"/>
       <c r="P19" s="211"/>
       <c r="Q19" s="213"/>
-      <c r="R19" s="214"/>
-      <c r="S19" s="214"/>
-      <c r="T19" s="214"/>
-      <c r="U19" s="214"/>
-      <c r="V19" s="214"/>
-      <c r="W19" s="214"/>
-      <c r="X19" s="214"/>
-      <c r="Y19" s="214"/>
-      <c r="Z19" s="215"/>
+      <c r="R19" s="215"/>
+      <c r="S19" s="215"/>
+      <c r="T19" s="215"/>
+      <c r="U19" s="215"/>
+      <c r="V19" s="215"/>
+      <c r="W19" s="215"/>
+      <c r="X19" s="215"/>
+      <c r="Y19" s="215"/>
+      <c r="Z19" s="216"/>
     </row>
     <row r="20" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="7"/>
       <c r="C20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="211"/>
@@ -4257,20 +4250,20 @@
       <c r="O20" s="213"/>
       <c r="P20" s="211"/>
       <c r="Q20" s="213"/>
-      <c r="R20" s="214"/>
-      <c r="S20" s="214"/>
-      <c r="T20" s="214"/>
-      <c r="U20" s="214"/>
-      <c r="V20" s="214"/>
-      <c r="W20" s="214"/>
-      <c r="X20" s="214"/>
-      <c r="Y20" s="214"/>
-      <c r="Z20" s="215"/>
+      <c r="R20" s="215"/>
+      <c r="S20" s="215"/>
+      <c r="T20" s="215"/>
+      <c r="U20" s="215"/>
+      <c r="V20" s="215"/>
+      <c r="W20" s="215"/>
+      <c r="X20" s="215"/>
+      <c r="Y20" s="215"/>
+      <c r="Z20" s="216"/>
     </row>
     <row r="21" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="7"/>
       <c r="C21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="211"/>
@@ -4286,20 +4279,20 @@
       <c r="O21" s="213"/>
       <c r="P21" s="211"/>
       <c r="Q21" s="213"/>
-      <c r="R21" s="214"/>
-      <c r="S21" s="214"/>
-      <c r="T21" s="214"/>
-      <c r="U21" s="214"/>
-      <c r="V21" s="214"/>
-      <c r="W21" s="214"/>
-      <c r="X21" s="214"/>
-      <c r="Y21" s="214"/>
-      <c r="Z21" s="215"/>
+      <c r="R21" s="215"/>
+      <c r="S21" s="215"/>
+      <c r="T21" s="215"/>
+      <c r="U21" s="215"/>
+      <c r="V21" s="215"/>
+      <c r="W21" s="215"/>
+      <c r="X21" s="215"/>
+      <c r="Y21" s="215"/>
+      <c r="Z21" s="216"/>
     </row>
     <row r="22" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="7"/>
       <c r="C22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="211"/>
@@ -4315,20 +4308,20 @@
       <c r="O22" s="213"/>
       <c r="P22" s="211"/>
       <c r="Q22" s="213"/>
-      <c r="R22" s="214"/>
-      <c r="S22" s="214"/>
-      <c r="T22" s="214"/>
-      <c r="U22" s="214"/>
-      <c r="V22" s="214"/>
-      <c r="W22" s="214"/>
-      <c r="X22" s="214"/>
-      <c r="Y22" s="214"/>
-      <c r="Z22" s="215"/>
+      <c r="R22" s="215"/>
+      <c r="S22" s="215"/>
+      <c r="T22" s="215"/>
+      <c r="U22" s="215"/>
+      <c r="V22" s="215"/>
+      <c r="W22" s="215"/>
+      <c r="X22" s="215"/>
+      <c r="Y22" s="215"/>
+      <c r="Z22" s="216"/>
     </row>
     <row r="23" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="7"/>
       <c r="C23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="211"/>
@@ -4344,20 +4337,20 @@
       <c r="O23" s="213"/>
       <c r="P23" s="211"/>
       <c r="Q23" s="213"/>
-      <c r="R23" s="214"/>
-      <c r="S23" s="214"/>
-      <c r="T23" s="214"/>
-      <c r="U23" s="214"/>
-      <c r="V23" s="214"/>
-      <c r="W23" s="214"/>
-      <c r="X23" s="214"/>
-      <c r="Y23" s="214"/>
-      <c r="Z23" s="215"/>
+      <c r="R23" s="215"/>
+      <c r="S23" s="215"/>
+      <c r="T23" s="215"/>
+      <c r="U23" s="215"/>
+      <c r="V23" s="215"/>
+      <c r="W23" s="215"/>
+      <c r="X23" s="215"/>
+      <c r="Y23" s="215"/>
+      <c r="Z23" s="216"/>
     </row>
     <row r="24" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="7"/>
       <c r="C24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="211"/>
@@ -4373,20 +4366,20 @@
       <c r="O24" s="213"/>
       <c r="P24" s="211"/>
       <c r="Q24" s="213"/>
-      <c r="R24" s="214"/>
-      <c r="S24" s="214"/>
-      <c r="T24" s="214"/>
-      <c r="U24" s="214"/>
-      <c r="V24" s="214"/>
-      <c r="W24" s="214"/>
-      <c r="X24" s="214"/>
-      <c r="Y24" s="214"/>
-      <c r="Z24" s="215"/>
+      <c r="R24" s="215"/>
+      <c r="S24" s="215"/>
+      <c r="T24" s="215"/>
+      <c r="U24" s="215"/>
+      <c r="V24" s="215"/>
+      <c r="W24" s="215"/>
+      <c r="X24" s="215"/>
+      <c r="Y24" s="215"/>
+      <c r="Z24" s="216"/>
     </row>
     <row r="25" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="7"/>
       <c r="C25" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="211"/>
@@ -4402,20 +4395,20 @@
       <c r="O25" s="213"/>
       <c r="P25" s="211"/>
       <c r="Q25" s="213"/>
-      <c r="R25" s="214"/>
-      <c r="S25" s="214"/>
-      <c r="T25" s="214"/>
-      <c r="U25" s="214"/>
-      <c r="V25" s="214"/>
-      <c r="W25" s="214"/>
-      <c r="X25" s="214"/>
-      <c r="Y25" s="214"/>
-      <c r="Z25" s="215"/>
+      <c r="R25" s="215"/>
+      <c r="S25" s="215"/>
+      <c r="T25" s="215"/>
+      <c r="U25" s="215"/>
+      <c r="V25" s="215"/>
+      <c r="W25" s="215"/>
+      <c r="X25" s="215"/>
+      <c r="Y25" s="215"/>
+      <c r="Z25" s="216"/>
     </row>
     <row r="26" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="7"/>
       <c r="C26" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="211"/>
@@ -4431,20 +4424,20 @@
       <c r="O26" s="213"/>
       <c r="P26" s="211"/>
       <c r="Q26" s="213"/>
-      <c r="R26" s="214"/>
-      <c r="S26" s="214"/>
-      <c r="T26" s="214"/>
-      <c r="U26" s="214"/>
-      <c r="V26" s="214"/>
-      <c r="W26" s="214"/>
-      <c r="X26" s="214"/>
-      <c r="Y26" s="214"/>
-      <c r="Z26" s="215"/>
+      <c r="R26" s="215"/>
+      <c r="S26" s="215"/>
+      <c r="T26" s="215"/>
+      <c r="U26" s="215"/>
+      <c r="V26" s="215"/>
+      <c r="W26" s="215"/>
+      <c r="X26" s="215"/>
+      <c r="Y26" s="215"/>
+      <c r="Z26" s="216"/>
     </row>
     <row r="27" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="7"/>
       <c r="C27" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="211"/>
@@ -4460,20 +4453,20 @@
       <c r="O27" s="213"/>
       <c r="P27" s="211"/>
       <c r="Q27" s="213"/>
-      <c r="R27" s="214"/>
-      <c r="S27" s="214"/>
-      <c r="T27" s="214"/>
-      <c r="U27" s="214"/>
-      <c r="V27" s="214"/>
-      <c r="W27" s="214"/>
-      <c r="X27" s="214"/>
-      <c r="Y27" s="214"/>
-      <c r="Z27" s="215"/>
+      <c r="R27" s="215"/>
+      <c r="S27" s="215"/>
+      <c r="T27" s="215"/>
+      <c r="U27" s="215"/>
+      <c r="V27" s="215"/>
+      <c r="W27" s="215"/>
+      <c r="X27" s="215"/>
+      <c r="Y27" s="215"/>
+      <c r="Z27" s="216"/>
     </row>
     <row r="28" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="7"/>
       <c r="C28" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="211"/>
@@ -4489,20 +4482,20 @@
       <c r="O28" s="213"/>
       <c r="P28" s="211"/>
       <c r="Q28" s="213"/>
-      <c r="R28" s="214"/>
-      <c r="S28" s="214"/>
-      <c r="T28" s="214"/>
-      <c r="U28" s="214"/>
-      <c r="V28" s="214"/>
-      <c r="W28" s="214"/>
-      <c r="X28" s="214"/>
-      <c r="Y28" s="214"/>
-      <c r="Z28" s="215"/>
+      <c r="R28" s="215"/>
+      <c r="S28" s="215"/>
+      <c r="T28" s="215"/>
+      <c r="U28" s="215"/>
+      <c r="V28" s="215"/>
+      <c r="W28" s="215"/>
+      <c r="X28" s="215"/>
+      <c r="Y28" s="215"/>
+      <c r="Z28" s="216"/>
     </row>
     <row r="29" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="7"/>
       <c r="C29" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="211"/>
@@ -4518,20 +4511,20 @@
       <c r="O29" s="213"/>
       <c r="P29" s="211"/>
       <c r="Q29" s="213"/>
-      <c r="R29" s="214"/>
-      <c r="S29" s="214"/>
-      <c r="T29" s="214"/>
-      <c r="U29" s="214"/>
-      <c r="V29" s="214"/>
-      <c r="W29" s="214"/>
-      <c r="X29" s="214"/>
-      <c r="Y29" s="214"/>
-      <c r="Z29" s="215"/>
+      <c r="R29" s="215"/>
+      <c r="S29" s="215"/>
+      <c r="T29" s="215"/>
+      <c r="U29" s="215"/>
+      <c r="V29" s="215"/>
+      <c r="W29" s="215"/>
+      <c r="X29" s="215"/>
+      <c r="Y29" s="215"/>
+      <c r="Z29" s="216"/>
     </row>
     <row r="30" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="7"/>
       <c r="C30" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="211"/>
@@ -4547,20 +4540,20 @@
       <c r="O30" s="213"/>
       <c r="P30" s="211"/>
       <c r="Q30" s="213"/>
-      <c r="R30" s="214"/>
-      <c r="S30" s="214"/>
-      <c r="T30" s="214"/>
-      <c r="U30" s="214"/>
-      <c r="V30" s="214"/>
-      <c r="W30" s="214"/>
-      <c r="X30" s="214"/>
-      <c r="Y30" s="214"/>
-      <c r="Z30" s="215"/>
+      <c r="R30" s="215"/>
+      <c r="S30" s="215"/>
+      <c r="T30" s="215"/>
+      <c r="U30" s="215"/>
+      <c r="V30" s="215"/>
+      <c r="W30" s="215"/>
+      <c r="X30" s="215"/>
+      <c r="Y30" s="215"/>
+      <c r="Z30" s="216"/>
     </row>
     <row r="31" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="7"/>
       <c r="C31" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="211"/>
@@ -4584,12 +4577,12 @@
       <c r="W31" s="212"/>
       <c r="X31" s="212"/>
       <c r="Y31" s="212"/>
-      <c r="Z31" s="262"/>
+      <c r="Z31" s="223"/>
     </row>
     <row r="32" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="10"/>
       <c r="C32" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="211"/>
@@ -4605,20 +4598,20 @@
       <c r="O32" s="213"/>
       <c r="P32" s="211"/>
       <c r="Q32" s="213"/>
-      <c r="R32" s="228"/>
-      <c r="S32" s="229"/>
-      <c r="T32" s="229"/>
-      <c r="U32" s="230"/>
-      <c r="V32" s="228"/>
-      <c r="W32" s="229"/>
-      <c r="X32" s="229"/>
-      <c r="Y32" s="229"/>
-      <c r="Z32" s="264"/>
+      <c r="R32" s="226"/>
+      <c r="S32" s="227"/>
+      <c r="T32" s="227"/>
+      <c r="U32" s="263"/>
+      <c r="V32" s="226"/>
+      <c r="W32" s="227"/>
+      <c r="X32" s="227"/>
+      <c r="Y32" s="227"/>
+      <c r="Z32" s="228"/>
     </row>
     <row r="33" spans="2:26" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="12"/>
       <c r="C33" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="211"/>
@@ -4632,17 +4625,17 @@
       <c r="M33" s="212"/>
       <c r="N33" s="212"/>
       <c r="O33" s="213"/>
-      <c r="P33" s="216"/>
-      <c r="Q33" s="217"/>
-      <c r="R33" s="218"/>
-      <c r="S33" s="218"/>
-      <c r="T33" s="218"/>
-      <c r="U33" s="218"/>
-      <c r="V33" s="218"/>
-      <c r="W33" s="218"/>
-      <c r="X33" s="218"/>
-      <c r="Y33" s="218"/>
-      <c r="Z33" s="263"/>
+      <c r="P33" s="264"/>
+      <c r="Q33" s="265"/>
+      <c r="R33" s="224"/>
+      <c r="S33" s="224"/>
+      <c r="T33" s="224"/>
+      <c r="U33" s="224"/>
+      <c r="V33" s="224"/>
+      <c r="W33" s="224"/>
+      <c r="X33" s="224"/>
+      <c r="Y33" s="224"/>
+      <c r="Z33" s="225"/>
     </row>
     <row r="34" spans="2:26" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="65"/>
@@ -4661,22 +4654,22 @@
       <c r="O34" s="65"/>
       <c r="P34" s="65"/>
       <c r="Q34" s="66"/>
-      <c r="R34" s="225" t="s">
-        <v>16</v>
-      </c>
-      <c r="S34" s="226"/>
-      <c r="T34" s="226"/>
-      <c r="U34" s="227"/>
-      <c r="V34" s="257"/>
-      <c r="W34" s="258"/>
-      <c r="X34" s="258"/>
-      <c r="Y34" s="258"/>
-      <c r="Z34" s="259"/>
+      <c r="R34" s="260" t="s">
+        <v>15</v>
+      </c>
+      <c r="S34" s="261"/>
+      <c r="T34" s="261"/>
+      <c r="U34" s="262"/>
+      <c r="V34" s="217"/>
+      <c r="W34" s="218"/>
+      <c r="X34" s="218"/>
+      <c r="Y34" s="218"/>
+      <c r="Z34" s="219"/>
     </row>
     <row r="35" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="224"/>
-      <c r="C35" s="224"/>
-      <c r="D35" s="224"/>
+      <c r="B35" s="259"/>
+      <c r="C35" s="259"/>
+      <c r="D35" s="259"/>
       <c r="E35" s="83"/>
       <c r="F35" s="83"/>
       <c r="G35" s="83"/>
@@ -4689,33 +4682,33 @@
       <c r="N35" s="83"/>
       <c r="O35" s="83"/>
       <c r="P35" s="84"/>
-      <c r="Q35" s="219" t="s">
-        <v>21</v>
-      </c>
-      <c r="R35" s="220"/>
-      <c r="S35" s="221"/>
+      <c r="Q35" s="254" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35" s="255"/>
+      <c r="S35" s="256"/>
       <c r="T35" s="67"/>
       <c r="U35" s="15"/>
       <c r="V35" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W35" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X35" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y35" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z35" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="224"/>
-      <c r="C36" s="224"/>
-      <c r="D36" s="224"/>
+      <c r="B36" s="259"/>
+      <c r="C36" s="259"/>
+      <c r="D36" s="259"/>
       <c r="E36" s="83"/>
       <c r="F36" s="83"/>
       <c r="G36" s="83"/>
@@ -4728,9 +4721,9 @@
       <c r="N36" s="83"/>
       <c r="O36" s="83"/>
       <c r="P36" s="84"/>
-      <c r="Q36" s="222"/>
-      <c r="R36" s="222"/>
-      <c r="S36" s="223"/>
+      <c r="Q36" s="257"/>
+      <c r="R36" s="257"/>
+      <c r="S36" s="258"/>
       <c r="T36" s="68"/>
       <c r="U36" s="18"/>
       <c r="V36" s="18"/>
@@ -4795,39 +4788,57 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="E32:O32"/>
-    <mergeCell ref="E10:O10"/>
-    <mergeCell ref="E11:O11"/>
-    <mergeCell ref="E31:O31"/>
-    <mergeCell ref="E12:O12"/>
-    <mergeCell ref="E14:O14"/>
-    <mergeCell ref="E16:O16"/>
-    <mergeCell ref="E18:O18"/>
-    <mergeCell ref="E30:O30"/>
-    <mergeCell ref="E13:O13"/>
-    <mergeCell ref="E19:O19"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V12:Z12"/>
-    <mergeCell ref="V13:Z13"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="E15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="V34:Z34"/>
-    <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="V10:Z10"/>
-    <mergeCell ref="V11:Z11"/>
-    <mergeCell ref="V33:Z33"/>
-    <mergeCell ref="V32:Z32"/>
-    <mergeCell ref="V31:Z31"/>
-    <mergeCell ref="V14:Z14"/>
-    <mergeCell ref="V15:Z15"/>
-    <mergeCell ref="V16:Z16"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="V27:Z27"/>
+    <mergeCell ref="E28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Z28"/>
+    <mergeCell ref="E29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="V29:Z29"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:Z24"/>
+    <mergeCell ref="E25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="V25:Z25"/>
+    <mergeCell ref="E26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="V26:Z26"/>
+    <mergeCell ref="Q35:S36"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="R32:U32"/>
+    <mergeCell ref="E33:O33"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:U33"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="B5:Z5"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="I2:S2"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="E20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V20:Z20"/>
+    <mergeCell ref="E17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:Z17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="V18:Z18"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:Z19"/>
+    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="E8:O8"/>
     <mergeCell ref="E9:O9"/>
     <mergeCell ref="P8:Q8"/>
@@ -4841,43 +4852,9 @@
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="R13:U13"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="B5:Z5"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="I2:S2"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="E20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V20:Z20"/>
     <mergeCell ref="E21:O21"/>
     <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="Q35:S36"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="R32:U32"/>
-    <mergeCell ref="E33:O33"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:U33"/>
-    <mergeCell ref="E17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:Z17"/>
-    <mergeCell ref="V30:Z30"/>
-    <mergeCell ref="V21:Z21"/>
-    <mergeCell ref="V23:Z23"/>
-    <mergeCell ref="V22:Z22"/>
     <mergeCell ref="R21:U21"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="V18:Z18"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:Z19"/>
-    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="E23:O23"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="R23:U23"/>
@@ -4886,28 +4863,44 @@
     <mergeCell ref="R22:U22"/>
     <mergeCell ref="E24:O24"/>
     <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:Z24"/>
-    <mergeCell ref="E25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="V25:Z25"/>
-    <mergeCell ref="E26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="V26:Z26"/>
+    <mergeCell ref="V34:Z34"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="V10:Z10"/>
+    <mergeCell ref="V11:Z11"/>
+    <mergeCell ref="V33:Z33"/>
+    <mergeCell ref="V32:Z32"/>
+    <mergeCell ref="V31:Z31"/>
+    <mergeCell ref="V14:Z14"/>
+    <mergeCell ref="V15:Z15"/>
+    <mergeCell ref="V16:Z16"/>
+    <mergeCell ref="V30:Z30"/>
+    <mergeCell ref="V21:Z21"/>
+    <mergeCell ref="V23:Z23"/>
+    <mergeCell ref="V22:Z22"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V12:Z12"/>
+    <mergeCell ref="V13:Z13"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="E15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="E32:O32"/>
+    <mergeCell ref="E10:O10"/>
+    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="E31:O31"/>
+    <mergeCell ref="E12:O12"/>
+    <mergeCell ref="E14:O14"/>
+    <mergeCell ref="E16:O16"/>
+    <mergeCell ref="E18:O18"/>
+    <mergeCell ref="E30:O30"/>
+    <mergeCell ref="E13:O13"/>
+    <mergeCell ref="E19:O19"/>
     <mergeCell ref="E27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:U27"/>
-    <mergeCell ref="V27:Z27"/>
-    <mergeCell ref="E28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Z28"/>
-    <mergeCell ref="E29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="V29:Z29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
